--- a/bigcode-evaluation-harness/result/codeqwen1.5-7b-base.xlsx
+++ b/bigcode-evaluation-harness/result/codeqwen1.5-7b-base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,413 +1073,600 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_combined_perturbation</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+          <t>mbpp_generate_cpp_robust_code_expression_exchange</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>51</v>
+      </c>
+      <c r="D26" t="n">
+        <v>444</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6509009009009009</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5540540540540541</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.149</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_style</t>
+          <t>mbpp_generate_cpp_robust_code_stmt_exchange</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>0.718</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="F27" t="n">
-        <v>0.722</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.006</v>
+        <v>-0.308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_combined_perturbation</t>
+          <t>mbpp_generate_cpp_robust_code_style</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E28" t="n">
-        <v>0.717434869739479</v>
+        <v>0.666</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4509018036072144</v>
+        <v>0.668</v>
       </c>
       <c r="G28" t="n">
-        <v>0.372</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_insert</t>
+          <t>mbpp_generate_cpp_robust_combined_perturbation</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E29" t="n">
-        <v>0.718</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5894308943089431</v>
       </c>
       <c r="G29" t="n">
-        <v>0.039</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_rename</t>
+          <t>mbpp_generate_cpp_robust_insert</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>500</v>
       </c>
       <c r="E30" t="n">
-        <v>0.718</v>
+        <v>0.666</v>
       </c>
       <c r="F30" t="n">
-        <v>0.652</v>
+        <v>0.646</v>
       </c>
       <c r="G30" t="n">
-        <v>0.092</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_code_expression_exchange</t>
+          <t>mbpp_generate_cpp_robust_rename</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4695340501792115</v>
+        <v>0.6673346693386774</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5089605734767025</v>
+        <v>0.6513026052104208</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.08400000000000001</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_code_stmt_exchange</t>
+          <t>mbpp_generate_java_robust_code_expression_exchange</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>178</v>
+        <v>417</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4382022471910113</v>
+        <v>0.7338129496402878</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1404494382022472</v>
+        <v>0.4988009592326139</v>
       </c>
       <c r="G32" t="n">
-        <v>0.679</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_code_style</t>
+          <t>mbpp_generate_java_robust_code_stmt_exchange</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D33" t="n">
-        <v>500</v>
+        <v>188</v>
       </c>
       <c r="E33" t="n">
-        <v>0.516</v>
+        <v>0.7074468085106383</v>
       </c>
       <c r="F33" t="n">
-        <v>0.496</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="G33" t="n">
-        <v>0.039</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_combined_perturbation</t>
+          <t>mbpp_generate_java_robust_code_style</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5163934426229508</v>
+        <v>0.718</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.722</v>
       </c>
       <c r="G34" t="n">
-        <v>0.238</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_insert</t>
+          <t>mbpp_generate_java_robust_combined_perturbation</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="D35" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E35" t="n">
-        <v>0.516</v>
+        <v>0.717434869739479</v>
       </c>
       <c r="F35" t="n">
-        <v>0.392</v>
+        <v>0.4509018036072144</v>
       </c>
       <c r="G35" t="n">
-        <v>0.24</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_rename</t>
+          <t>mbpp_generate_java_robust_insert</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
         <v>24</v>
-      </c>
-      <c r="C36" t="n">
-        <v>35</v>
       </c>
       <c r="D36" t="n">
         <v>500</v>
       </c>
       <c r="E36" t="n">
-        <v>0.516</v>
+        <v>0.718</v>
       </c>
       <c r="F36" t="n">
-        <v>0.494</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_code_expression_exchange</t>
+          <t>mbpp_generate_java_robust_rename</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D37" t="n">
-        <v>219</v>
+        <v>500</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5799086757990868</v>
+        <v>0.718</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5342465753424658</v>
+        <v>0.652</v>
       </c>
       <c r="G37" t="n">
-        <v>0.079</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_code_stmt_exchange</t>
+          <t>mbpp_generate_javascript_robust_code_expression_exchange</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4</v>
+        <v>0.4695340501792115</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2</v>
+        <v>0.5089605734767025</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>-0.08400000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_code_style</t>
+          <t>mbpp_generate_javascript_robust_code_stmt_exchange</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D39" t="n">
-        <v>500</v>
+        <v>178</v>
       </c>
       <c r="E39" t="n">
-        <v>0.582</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="F39" t="n">
-        <v>0.584</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.003</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_combined_perturbation</t>
+          <t>mbpp_generate_javascript_robust_code_style</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
         <v>500</v>
       </c>
       <c r="E40" t="n">
-        <v>0.582</v>
+        <v>0.516</v>
       </c>
       <c r="F40" t="n">
-        <v>0.422</v>
+        <v>0.496</v>
       </c>
       <c r="G40" t="n">
-        <v>0.275</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_insert</t>
+          <t>mbpp_generate_javascript_robust_combined_perturbation</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C41" t="n">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D41" t="n">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="E41" t="n">
-        <v>0.582</v>
+        <v>0.5163934426229508</v>
       </c>
       <c r="F41" t="n">
-        <v>0.418</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="G41" t="n">
-        <v>0.282</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_rename</t>
+          <t>mbpp_generate_javascript_robust_insert</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C42" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D42" t="n">
         <v>500</v>
       </c>
       <c r="E42" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>mbpp_generate_javascript_robust_rename</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>24</v>
+      </c>
+      <c r="C43" t="n">
+        <v>35</v>
+      </c>
+      <c r="D43" t="n">
+        <v>500</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mbpp_generate_python_robust_code_expression_exchange</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>16</v>
+      </c>
+      <c r="D44" t="n">
+        <v>219</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5799086757990868</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5342465753424658</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mbpp_generate_python_robust_code_stmt_exchange</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mbpp_generate_python_robust_code_style</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19</v>
+      </c>
+      <c r="D46" t="n">
+        <v>500</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.582</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F46" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.003</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>mbpp_generate_python_robust_combined_perturbation</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>24</v>
+      </c>
+      <c r="C47" t="n">
+        <v>104</v>
+      </c>
+      <c r="D47" t="n">
+        <v>500</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mbpp_generate_python_robust_insert</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>22</v>
+      </c>
+      <c r="C48" t="n">
+        <v>104</v>
+      </c>
+      <c r="D48" t="n">
+        <v>500</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mbpp_generate_python_robust_rename</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>17</v>
+      </c>
+      <c r="C49" t="n">
+        <v>109</v>
+      </c>
+      <c r="D49" t="n">
+        <v>500</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.398</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G49" t="n">
         <v>0.316</v>
       </c>
     </row>
